--- a/data/trans_dic/P25A$otro-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P25A$otro-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009423810191501132</v>
+        <v>0.01294540520122728</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01416220557797378</v>
+        <v>0.01416137085779775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0611463072448552</v>
+        <v>0.05817338589279981</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01818568757272863</v>
+        <v>0.01769955998630816</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01751608590531611</v>
+        <v>0.01782205310257093</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06690281297564811</v>
+        <v>0.07426144950770125</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01815656160028277</v>
+        <v>0.01761992336455227</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.02372210111469815</v>
+        <v>0.02319608523964299</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07439566906454573</v>
+        <v>0.07560076689051574</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09346074897709598</v>
+        <v>0.08728541587370538</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07244909499910289</v>
+        <v>0.0768382199058103</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1470505760684393</v>
+        <v>0.1475527133225055</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1690775739098593</v>
+        <v>0.1567879394218732</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1159609571655157</v>
+        <v>0.1190358330040672</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2270774251833559</v>
+        <v>0.2238593841458163</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08842520238980736</v>
+        <v>0.08667928205094329</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.07776314289965502</v>
+        <v>0.07452954257576262</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1544780353017624</v>
+        <v>0.1573916028683468</v>
       </c>
     </row>
     <row r="7">
@@ -787,28 +787,28 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00390408387312477</v>
+        <v>0.003925361567836337</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02942177803231798</v>
+        <v>0.02815831866127678</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04426088231721027</v>
+        <v>0.04509978695906326</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02359913620951752</v>
+        <v>0.02419711241786905</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05586526995517706</v>
+        <v>0.05941596976783791</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01574828713412738</v>
+        <v>0.01605615736106062</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01338613468909182</v>
+        <v>0.01333650427308723</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0488404016269537</v>
+        <v>0.05048845544801465</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03377523207842473</v>
+        <v>0.0380540684141129</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03368976709291248</v>
+        <v>0.03388937165124601</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1103395638284115</v>
+        <v>0.1004512941353094</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1908224939953128</v>
+        <v>0.1950018989564224</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1102856054859022</v>
+        <v>0.1115759338555116</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1959579541424663</v>
+        <v>0.188009861177387</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06259649118492562</v>
+        <v>0.06433161773039381</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04737264448253212</v>
+        <v>0.04799125513371595</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1159603751282714</v>
+        <v>0.115518470376072</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01314627185907303</v>
+        <v>0.01323160037578689</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008315367614787577</v>
+        <v>0.008031670765820662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04057697481519569</v>
+        <v>0.04688897618034904</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08388758611089218</v>
+        <v>0.08301827083936111</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02082785290376811</v>
+        <v>0.02058364417617893</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04617552834269964</v>
+        <v>0.04402353047955574</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.03960009428255302</v>
+        <v>0.0417928322283384</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01538219510286022</v>
+        <v>0.0159672295782177</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05429300724493705</v>
+        <v>0.05516664796654042</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06137551264660968</v>
+        <v>0.05895228923127757</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.046847157826077</v>
+        <v>0.04440279614190069</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1400090789112798</v>
+        <v>0.1395533436832199</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2439668650420776</v>
+        <v>0.2440399365366962</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1140512587823529</v>
+        <v>0.1127048517366157</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1745111483504846</v>
+        <v>0.1720442338853771</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09985991258082827</v>
+        <v>0.100901677087271</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.05417264771634836</v>
+        <v>0.05512974453321652</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1248348896980866</v>
+        <v>0.1296358697512797</v>
       </c>
     </row>
     <row r="13">
@@ -1008,25 +1008,25 @@
         <v>0</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1074641023290961</v>
+        <v>0.105864950478736</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02214696846056375</v>
+        <v>0.02234805895667926</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1016558191360596</v>
+        <v>0.104120856836002</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.007228314262833661</v>
+        <v>0.007208576685574932</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1285321032187065</v>
+        <v>0.1262847284916821</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04609614962847778</v>
+        <v>0.04666799917727133</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05099803476728372</v>
+        <v>0.05311801218163316</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2552926740051846</v>
+        <v>0.2611874332518289</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1983262136198179</v>
+        <v>0.2099763517782966</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1304733448006664</v>
+        <v>0.1034761233933247</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3200357637947938</v>
+        <v>0.3225163474451371</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.07596770786086224</v>
+        <v>0.07662502621187245</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0408462692061742</v>
+        <v>0.04110164380515932</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2622910608524767</v>
+        <v>0.250429826009507</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01312771566011537</v>
+        <v>0.01379543647739988</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01310132235332098</v>
+        <v>0.01245798062342115</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07511856387032828</v>
+        <v>0.07255243239842384</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07332883678484964</v>
+        <v>0.07253605398655583</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03138906424793025</v>
+        <v>0.02966951354092226</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09669898529260083</v>
+        <v>0.09606545344579681</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03380845296157464</v>
+        <v>0.03489438890270118</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02095233959955834</v>
+        <v>0.02183341226165326</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08732551522536144</v>
+        <v>0.08958719578664677</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.037990132730206</v>
+        <v>0.03859769722262039</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03550220542597073</v>
+        <v>0.03371761813354417</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1213486987179524</v>
+        <v>0.1207025792640484</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1622517219159001</v>
+        <v>0.1516495580149146</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07655651791004732</v>
+        <v>0.0777397389337043</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1731505408362625</v>
+        <v>0.1735194269565013</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0633790328721389</v>
+        <v>0.0652019129509102</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04199284837713501</v>
+        <v>0.04203330693564433</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1296613733788368</v>
+        <v>0.1292417621290347</v>
       </c>
     </row>
     <row r="19">
@@ -1399,31 +1399,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1182</v>
+        <v>1624</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>3024</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11025</v>
+        <v>10489</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>941</v>
+        <v>916</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1983</v>
+        <v>2018</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6194</v>
+        <v>6875</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3218</v>
+        <v>3123</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>7752</v>
+        <v>7580</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>20301</v>
+        <v>20630</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11725</v>
+        <v>10950</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15472</v>
+        <v>16410</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26513</v>
+        <v>26604</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8753</v>
+        <v>8116</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13130</v>
+        <v>13478</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>21023</v>
+        <v>20725</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>15671</v>
+        <v>15362</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>25412</v>
+        <v>24355</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>42154</v>
+        <v>42949</v>
       </c>
     </row>
     <row r="8">
@@ -1546,28 +1546,28 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4751</v>
+        <v>4547</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3119</v>
+        <v>3178</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2972</v>
+        <v>3047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5195</v>
+        <v>5525</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>4211</v>
+        <v>4294</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5129</v>
+        <v>5110</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>12429</v>
+        <v>12849</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6652</v>
+        <v>7495</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8666</v>
+        <v>8718</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>17819</v>
+        <v>16222</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>13446</v>
+        <v>13741</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13887</v>
+        <v>14050</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18223</v>
+        <v>17484</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>16739</v>
+        <v>17203</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>18151</v>
+        <v>18388</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>29511</v>
+        <v>29398</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>2866</v>
+        <v>2885</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1957</v>
+        <v>1890</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6304</v>
+        <v>7284</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7268</v>
+        <v>7193</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2036</v>
+        <v>2012</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3745</v>
+        <v>3571</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12064</v>
+        <v>12732</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>5124</v>
+        <v>5319</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12838</v>
+        <v>13045</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>13381</v>
+        <v>12852</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11025</v>
+        <v>10449</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>21751</v>
+        <v>21680</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>21138</v>
+        <v>21144</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>11151</v>
+        <v>11019</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>14155</v>
+        <v>13955</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>30423</v>
+        <v>30740</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18045</v>
+        <v>18364</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>29519</v>
+        <v>30654</v>
       </c>
     </row>
     <row r="16">
@@ -1837,25 +1837,25 @@
         <v>0</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>11142</v>
+        <v>10976</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>6724</v>
+        <v>6887</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="J18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>21827</v>
+        <v>21446</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3589</v>
+        <v>3633</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>5288</v>
+        <v>5508</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>26469</v>
+        <v>27080</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>7075</v>
+        <v>7490</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6356</v>
+        <v>5041</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>21167</v>
+        <v>21331</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8624</v>
+        <v>8699</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>6225</v>
+        <v>6264</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>44543</v>
+        <v>42528</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8116</v>
+        <v>8529</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10610</v>
+        <v>10089</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>45133</v>
+        <v>43592</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>17932</v>
+        <v>17738</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>12105</v>
+        <v>11442</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>32184</v>
+        <v>31973</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>29170</v>
+        <v>30107</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>25048</v>
+        <v>26101</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>81532</v>
+        <v>83643</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>23488</v>
+        <v>23864</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28751</v>
+        <v>27305</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>72910</v>
+        <v>72522</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>39678</v>
+        <v>37085</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>29523</v>
+        <v>29979</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>57629</v>
+        <v>57752</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>54684</v>
+        <v>56257</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>50201</v>
+        <v>50249</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>121059</v>
+        <v>120667</v>
       </c>
     </row>
     <row r="24">
